--- a/ataque.xlsx
+++ b/ataque.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M23" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3502,6 +3502,71 @@
         <v>3</v>
       </c>
     </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>396</v>
+      </c>
+      <c r="M48">
+        <v>369</v>
+      </c>
+      <c r="N48">
+        <v>315</v>
+      </c>
+      <c r="O48">
+        <v>291</v>
+      </c>
+      <c r="P48">
+        <v>9</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>39</v>
+      </c>
+      <c r="S48">
+        <v>19</v>
+      </c>
+      <c r="T48">
+        <v>23</v>
+      </c>
+      <c r="U48">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
